--- a/AddDx.xlsx
+++ b/AddDx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\git\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEA23D2-F5D8-4833-9B8E-233DED0591D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D97C5-F4A1-49E9-B528-FD6302E93F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C5508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,21 +453,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>130304733</v>
+        <v>127283467</v>
       </c>
       <c r="B2">
-        <v>85027</v>
+        <v>85007</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>130304751</v>
+        <v>130304733</v>
       </c>
       <c r="B3">
-        <v>80061</v>
+        <v>85027</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -475,21 +475,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>127283421</v>
+        <v>130304751</v>
       </c>
       <c r="B4">
-        <v>86003</v>
+        <v>80061</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>127283430</v>
+        <v>127283421</v>
       </c>
       <c r="B5">
-        <v>85025</v>
+        <v>86003</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>127283467</v>
+        <v>127283430</v>
       </c>
       <c r="B6">
-        <v>85007</v>
+        <v>85025</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
